--- a/missing product setup in Atlas.xlsx
+++ b/missing product setup in Atlas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00965B5D-9E41-41F8-AA95-0D87CDE6F9A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86CB67-5BEF-499F-AEF5-B41ACA4E62C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Missing product set up in Atlas</t>
-  </si>
-  <si>
     <t>Policy Number</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Missing Product</t>
+  </si>
+  <si>
+    <t>Missing product setup in Atlas</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,20 +382,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row>
       <c t="inlineStr" s="">
@@ -496,6 +496,2508 @@
       <c t="inlineStr" s="">
         <is>
           <t>INS812</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1710094</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6836</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1106606</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BRK635</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:BRK635
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1726566</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>NHN795</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081108</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEH500</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1711287</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5A2146</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:5A2146
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1706524</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1706524</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG130510</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5A7229</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:5A7229
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG130739</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEP480</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:LEP480
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG130741</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEP480</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:LEP480
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128457</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128456</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128465</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128464</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128463</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128462</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128466</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128460</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128459</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128458</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128461</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128477</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128476</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128475</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128474</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128473</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128472</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128471</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128470</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128469</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128467</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128468</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128481</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128478</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128479</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128485</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128484</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128483</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128482</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128486</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG128480</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>BCI101</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:BCI101
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG129072</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>7MT393</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:7MT393
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>SGG130624</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>7MT393</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:SGG not found for partner:7MT393
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081111</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>MCF013</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1468033</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1107462</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1469947</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1474582</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ATB781</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:ATB781
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1109250</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1477007</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1088857</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1477638</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1477648</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1477665</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1478866</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1479259</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DES000</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:DES000
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1541906</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>HAN771</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:HAN771
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1542228</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>IFG219</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:IFG219
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1089230</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1111099</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1091179</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1486394</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1488145</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1551170</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>HAN771</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:HAN771
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1551881</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>HAN771</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:HAN771
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1090539</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1090539</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1491911</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1491911</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1504305</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1115414</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1506311</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA269</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA269
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1512583</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1514286</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1120095</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1528564</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DES653</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:DES653
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1528808</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1529675</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1107462</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1120913</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1105958</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1121039</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1120609</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1542037</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1542037</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1124854</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1545113</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1545113</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1525980</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA273</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA273
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1543294</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DES809</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:DES809
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1532495</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DES600</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:DES600
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1126206</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1126206</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1554484</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1554719</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1127339</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1552238</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1559033</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1559510</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1127981</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA266</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA266
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1564229</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1565902</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ATB757</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:ATB757
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1129367</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1566941</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1553844</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA156</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA156
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1129602</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1129673</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1133116</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA267</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA267
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1589410</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ATB000</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:ATB000
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1137874</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA107</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA107
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGM1160282</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA127</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGM not found for partner:AWA127
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1139921</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>TGI108</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:TGI108
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1614291</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>TGI108</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:TGI108
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1613134</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ATB897</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:ATB897
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1613134</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ATB897</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:ATB897
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1727318</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PUN007</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1623514</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA127</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:AWA127
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1138647</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>TGI108</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:TGI108
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1139958</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>TGI108</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:TGI108
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1556018</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DES600</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:DES600
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1144038</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA127</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA127
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1147607</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>AWA127</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCM not found for partner:AWA127
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1077840</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>ARD500</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:VMD not found for partner:ARD500
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1704321</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DAL451</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:DAL451
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1702023</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DAL451</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:DAL451
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1702023</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>DAL451</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGS not found for partner:DAL451
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGM4762027</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>7BF300</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGM not found for partner:7BF300
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGM1172403</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>7BF300</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGM not found for partner:7BF300
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGM1172694</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>7BF300</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FGM not found for partner:7BF300
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCS1711287</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5A2146</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>Product:FCS not found for partner:5A2146
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1162587</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1162587</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081191</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEH500</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FGS1727083</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FOR662</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1162587</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>FCM1162587</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>5B6884</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081191</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEH500</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081258</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEH500</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>PRODUCT_NOT_FOUND
+ </t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr" s="">
+        <is>
+          <t>VMD1081258</t>
+        </is>
+      </c>
+      <c t="inlineStr" s="">
+        <is>
+          <t>LEH500</t>
         </is>
       </c>
       <c t="inlineStr" s="">
